--- a/DOC/結合テスト/emsm経費管理結合テスト.xlsx
+++ b/DOC/結合テスト/emsm経費管理結合テスト.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5898848A-F160-486A-BDCB-9BF3723F44E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -1900,7 +1900,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2160,6 +2160,12 @@
       <name val="ＭＳ ゴシック"/>
       <color rgb="FF2A00FF"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee One SemiBold"/>
+      <charset val="128"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2506,7 +2512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3154,6 +3160,9 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="43" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4221,8 +4230,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" tabSelected="1">
-      <selection activeCell="E20" sqref="E20" activeCellId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="130" zoomScaleNormal="130">
+      <selection activeCell="K13" sqref="K13" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4305,9 +4314,15 @@
       <c r="F3" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="25"/>
+      <c r="G3" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="25">
+        <v>44788</v>
+      </c>
       <c r="J3" s="15"/>
       <c r="K3" s="19"/>
       <c r="L3" s="15"/>
@@ -4328,9 +4343,15 @@
       <c r="F4" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="25"/>
+      <c r="G4" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" s="25">
+        <v>44788</v>
+      </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
@@ -4351,14 +4372,20 @@
       <c r="F5" s="196" t="s">
         <v>293</v>
       </c>
-      <c r="G5" s="194"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="25"/>
+      <c r="G5" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="25">
+        <v>44788</v>
+      </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" ht="27">
+    <row r="6" ht="28">
       <c r="A6" s="14"/>
       <c r="B6" s="18">
         <v>4</v>
@@ -4375,9 +4402,15 @@
       <c r="F6" s="130" t="s">
         <v>290</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="25"/>
+      <c r="G6" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" s="25">
+        <v>44788</v>
+      </c>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -4398,14 +4431,20 @@
       <c r="F7" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="25"/>
+      <c r="G7" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" s="25">
+        <v>44788</v>
+      </c>
       <c r="J7" s="49"/>
       <c r="K7" s="19"/>
       <c r="L7" s="52"/>
     </row>
-    <row r="8" ht="27">
+    <row r="8" ht="28">
       <c r="B8" s="18">
         <v>6</v>
       </c>
@@ -4421,9 +4460,15 @@
       <c r="F8" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="25"/>
+      <c r="G8" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" s="25">
+        <v>44788</v>
+      </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -4444,9 +4489,15 @@
       <c r="F9" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="25"/>
+      <c r="G9" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" s="25">
+        <v>44788</v>
+      </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -4467,9 +4518,15 @@
       <c r="F10" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="25"/>
+      <c r="G10" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="25">
+        <v>44788</v>
+      </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -4490,9 +4547,15 @@
       <c r="F11" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="25"/>
+      <c r="G11" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I11" s="25">
+        <v>44788</v>
+      </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -4513,9 +4576,15 @@
       <c r="F12" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="25"/>
+      <c r="G12" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I12" s="25">
+        <v>44788</v>
+      </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -4536,9 +4605,15 @@
       <c r="F13" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="25"/>
+      <c r="G13" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" s="25">
+        <v>44788</v>
+      </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -4560,9 +4635,15 @@
       <c r="F14" s="123" t="s">
         <v>359</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="25"/>
+      <c r="G14" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I14" s="25">
+        <v>44788</v>
+      </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
@@ -4584,9 +4665,15 @@
       <c r="F15" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="25"/>
+      <c r="G15" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I15" s="25">
+        <v>44788</v>
+      </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -4608,9 +4695,15 @@
       <c r="F16" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="25"/>
+      <c r="G16" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I16" s="25">
+        <v>44788</v>
+      </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -4635,6 +4728,7 @@
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="46"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19">
       <c r="B19" s="17"/>
@@ -4642,6 +4736,7 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="46"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20">
       <c r="B20" s="17"/>
@@ -4649,6 +4744,7 @@
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="46"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21">
       <c r="B21" s="17"/>
@@ -4656,6 +4752,7 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="46"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22">
       <c r="B22" s="17"/>
@@ -4663,6 +4760,7 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="46"/>
+      <c r="H22" s="14"/>
       <c r="N22" s="14"/>
     </row>
     <row r="23">
@@ -4671,6 +4769,7 @@
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="46"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24">
       <c r="B24" s="17"/>
@@ -4678,6 +4777,7 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="46"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25">
       <c r="B25" s="17"/>
@@ -4685,6 +4785,7 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="46"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26">
       <c r="B26" s="17"/>
@@ -4692,6 +4793,7 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="46"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27">
       <c r="B27" s="17"/>
@@ -4699,6 +4801,151 @@
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="46"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28">
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29">
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30">
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31">
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32">
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33">
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34">
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35">
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36">
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37">
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38">
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39">
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40">
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41">
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42">
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43">
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44">
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45">
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46">
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47">
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48">
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49">
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50">
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51">
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52">
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53">
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54">
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55">
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56">
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57">
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58">
+      <c r="H58" s="14"/>
+    </row>
+    <row r="59">
+      <c r="H59" s="14"/>
+    </row>
+    <row r="60">
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61">
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62">
+      <c r="H62" s="14"/>
+    </row>
+    <row r="63">
+      <c r="H63" s="14"/>
+    </row>
+    <row r="64">
+      <c r="H64" s="14"/>
+    </row>
+    <row r="65">
+      <c r="H65" s="14"/>
+    </row>
+    <row r="66">
+      <c r="H66" s="14"/>
+    </row>
+    <row r="67">
+      <c r="H67" s="14"/>
+    </row>
+    <row r="68">
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69">
+      <c r="H69" s="14"/>
+    </row>
+    <row r="70">
+      <c r="H70" s="14"/>
+    </row>
+    <row r="71">
+      <c r="H71" s="14"/>
+    </row>
+    <row r="72">
+      <c r="H72" s="14"/>
+    </row>
+    <row r="73">
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74">
+      <c r="H74" s="14"/>
+    </row>
+    <row r="75">
+      <c r="H75" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4714,7 +4961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4784,9 +5031,7 @@
       <c r="F6" s="166" t="s">
         <v>242</v>
       </c>
-      <c r="H6" s="197" t="s">
-        <v>267</v>
-      </c>
+      <c r="H6" s="197"/>
     </row>
     <row r="7">
       <c r="B7" s="146" t="s">
